--- a/Data ANN Oxidation.xlsx
+++ b/Data ANN Oxidation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fbaci\Documents\Oxidation_SVR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5067A4-44EC-4FEB-A89D-21045B8C67D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4478DE9D-CA02-43A8-9FB5-46A67907F253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28020" windowHeight="16440" xr2:uid="{B3A0DE45-8C9D-47FA-AE47-7FBC4D0760BE}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,8 +125,16 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,6 +152,11 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -154,12 +167,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -173,12 +187,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
+    <cellStyle name="Neutralny" xfId="3" builtinId="28"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Zły" xfId="2" builtinId="27"/>
   </cellStyles>
@@ -494,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CC471B-27EE-4A95-B21F-BACF1A65D839}">
   <dimension ref="A1:M141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="M118" sqref="M118"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90:I97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,31 +858,31 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="8">
         <v>1000</v>
       </c>
-      <c r="B11" s="5">
-        <v>20</v>
-      </c>
-      <c r="C11" s="5">
-        <v>20</v>
-      </c>
-      <c r="D11" s="5">
-        <v>20</v>
-      </c>
-      <c r="E11" s="5">
-        <v>20</v>
-      </c>
-      <c r="F11" s="5">
-        <v>20</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0</v>
-      </c>
-      <c r="H11" s="5">
+      <c r="B11" s="8">
+        <v>20</v>
+      </c>
+      <c r="C11" s="8">
+        <v>20</v>
+      </c>
+      <c r="D11" s="8">
+        <v>20</v>
+      </c>
+      <c r="E11" s="8">
+        <v>20</v>
+      </c>
+      <c r="F11" s="8">
+        <v>20</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8">
         <v>50</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="8">
         <f t="shared" si="0"/>
         <v>11.395348837209303</v>
       </c>
@@ -875,31 +891,31 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="8">
         <v>1000</v>
       </c>
-      <c r="B12" s="5">
-        <v>20</v>
-      </c>
-      <c r="C12" s="5">
-        <v>20</v>
-      </c>
-      <c r="D12" s="5">
-        <v>20</v>
-      </c>
-      <c r="E12" s="5">
-        <v>20</v>
-      </c>
-      <c r="F12" s="5">
-        <v>20</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0</v>
-      </c>
-      <c r="H12" s="5">
+      <c r="B12" s="8">
+        <v>20</v>
+      </c>
+      <c r="C12" s="8">
+        <v>20</v>
+      </c>
+      <c r="D12" s="8">
+        <v>20</v>
+      </c>
+      <c r="E12" s="8">
+        <v>20</v>
+      </c>
+      <c r="F12" s="8">
+        <v>20</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
         <v>40</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="8">
         <f t="shared" si="0"/>
         <v>8.1395348837209305</v>
       </c>
@@ -908,31 +924,31 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="8">
         <v>1000</v>
       </c>
-      <c r="B13" s="5">
-        <v>20</v>
-      </c>
-      <c r="C13" s="5">
-        <v>20</v>
-      </c>
-      <c r="D13" s="5">
-        <v>20</v>
-      </c>
-      <c r="E13" s="5">
-        <v>20</v>
-      </c>
-      <c r="F13" s="5">
-        <v>20</v>
-      </c>
-      <c r="G13" s="5">
-        <v>0</v>
-      </c>
-      <c r="H13" s="5">
+      <c r="B13" s="8">
+        <v>20</v>
+      </c>
+      <c r="C13" s="8">
+        <v>20</v>
+      </c>
+      <c r="D13" s="8">
+        <v>20</v>
+      </c>
+      <c r="E13" s="8">
+        <v>20</v>
+      </c>
+      <c r="F13" s="8">
+        <v>20</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8">
         <v>35</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="8">
         <f t="shared" si="0"/>
         <v>6.9767441860465116</v>
       </c>
@@ -941,31 +957,31 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="8">
         <v>1000</v>
       </c>
-      <c r="B14" s="5">
-        <v>20</v>
-      </c>
-      <c r="C14" s="5">
-        <v>20</v>
-      </c>
-      <c r="D14" s="5">
-        <v>20</v>
-      </c>
-      <c r="E14" s="5">
-        <v>20</v>
-      </c>
-      <c r="F14" s="5">
-        <v>20</v>
-      </c>
-      <c r="G14" s="5">
-        <v>0</v>
-      </c>
-      <c r="H14" s="5">
+      <c r="B14" s="8">
+        <v>20</v>
+      </c>
+      <c r="C14" s="8">
+        <v>20</v>
+      </c>
+      <c r="D14" s="8">
+        <v>20</v>
+      </c>
+      <c r="E14" s="8">
+        <v>20</v>
+      </c>
+      <c r="F14" s="8">
+        <v>20</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8">
         <v>30</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="8">
         <f t="shared" si="0"/>
         <v>5.5813953488372094</v>
       </c>
@@ -974,31 +990,31 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="8">
         <v>1000</v>
       </c>
-      <c r="B15" s="5">
-        <v>20</v>
-      </c>
-      <c r="C15" s="5">
-        <v>20</v>
-      </c>
-      <c r="D15" s="5">
-        <v>20</v>
-      </c>
-      <c r="E15" s="5">
-        <v>20</v>
-      </c>
-      <c r="F15" s="5">
-        <v>20</v>
-      </c>
-      <c r="G15" s="5">
-        <v>0</v>
-      </c>
-      <c r="H15" s="5">
+      <c r="B15" s="8">
+        <v>20</v>
+      </c>
+      <c r="C15" s="8">
+        <v>20</v>
+      </c>
+      <c r="D15" s="8">
+        <v>20</v>
+      </c>
+      <c r="E15" s="8">
+        <v>20</v>
+      </c>
+      <c r="F15" s="8">
+        <v>20</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8">
         <v>25</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="8">
         <f t="shared" si="0"/>
         <v>4.4186046511627906</v>
       </c>
@@ -1007,31 +1023,31 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="8">
         <v>1000</v>
       </c>
-      <c r="B16" s="5">
-        <v>20</v>
-      </c>
-      <c r="C16" s="5">
-        <v>20</v>
-      </c>
-      <c r="D16" s="5">
-        <v>20</v>
-      </c>
-      <c r="E16" s="5">
-        <v>20</v>
-      </c>
-      <c r="F16" s="5">
-        <v>20</v>
-      </c>
-      <c r="G16" s="5">
-        <v>0</v>
-      </c>
-      <c r="H16" s="5">
-        <v>20</v>
-      </c>
-      <c r="I16" s="5">
+      <c r="B16" s="8">
+        <v>20</v>
+      </c>
+      <c r="C16" s="8">
+        <v>20</v>
+      </c>
+      <c r="D16" s="8">
+        <v>20</v>
+      </c>
+      <c r="E16" s="8">
+        <v>20</v>
+      </c>
+      <c r="F16" s="8">
+        <v>20</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8">
+        <v>20</v>
+      </c>
+      <c r="I16" s="8">
         <f t="shared" si="0"/>
         <v>3.2558139534883721</v>
       </c>
@@ -1040,31 +1056,31 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="8">
         <v>1000</v>
       </c>
-      <c r="B17" s="5">
-        <v>20</v>
-      </c>
-      <c r="C17" s="5">
-        <v>20</v>
-      </c>
-      <c r="D17" s="5">
-        <v>20</v>
-      </c>
-      <c r="E17" s="5">
-        <v>20</v>
-      </c>
-      <c r="F17" s="5">
-        <v>20</v>
-      </c>
-      <c r="G17" s="5">
-        <v>0</v>
-      </c>
-      <c r="H17" s="5">
+      <c r="B17" s="8">
+        <v>20</v>
+      </c>
+      <c r="C17" s="8">
+        <v>20</v>
+      </c>
+      <c r="D17" s="8">
+        <v>20</v>
+      </c>
+      <c r="E17" s="8">
+        <v>20</v>
+      </c>
+      <c r="F17" s="8">
+        <v>20</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8">
         <v>15</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="8">
         <f t="shared" si="0"/>
         <v>2.6046511627906979</v>
       </c>
@@ -1073,31 +1089,31 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="8">
         <v>1000</v>
       </c>
-      <c r="B18" s="5">
-        <v>20</v>
-      </c>
-      <c r="C18" s="5">
-        <v>20</v>
-      </c>
-      <c r="D18" s="5">
-        <v>20</v>
-      </c>
-      <c r="E18" s="5">
-        <v>20</v>
-      </c>
-      <c r="F18" s="5">
-        <v>20</v>
-      </c>
-      <c r="G18" s="5">
-        <v>0</v>
-      </c>
-      <c r="H18" s="5">
+      <c r="B18" s="8">
+        <v>20</v>
+      </c>
+      <c r="C18" s="8">
+        <v>20</v>
+      </c>
+      <c r="D18" s="8">
+        <v>20</v>
+      </c>
+      <c r="E18" s="8">
+        <v>20</v>
+      </c>
+      <c r="F18" s="8">
+        <v>20</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0</v>
+      </c>
+      <c r="H18" s="8">
         <v>10</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="8">
         <f t="shared" si="0"/>
         <v>1.8604651162790697</v>
       </c>
@@ -1106,31 +1122,31 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="7">
         <v>1000</v>
       </c>
-      <c r="B19" s="5">
-        <v>20</v>
-      </c>
-      <c r="C19" s="5">
-        <v>20</v>
-      </c>
-      <c r="D19" s="5">
-        <v>20</v>
-      </c>
-      <c r="E19" s="5">
-        <v>20</v>
-      </c>
-      <c r="F19" s="5">
-        <v>20</v>
-      </c>
-      <c r="G19" s="5">
-        <v>0</v>
-      </c>
-      <c r="H19" s="5">
-        <v>0</v>
-      </c>
-      <c r="I19" s="5">
+      <c r="B19" s="7">
+        <v>20</v>
+      </c>
+      <c r="C19" s="7">
+        <v>20</v>
+      </c>
+      <c r="D19" s="7">
+        <v>20</v>
+      </c>
+      <c r="E19" s="7">
+        <v>20</v>
+      </c>
+      <c r="F19" s="7">
+        <v>20</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
         <v>0</v>
       </c>
       <c r="K19" s="1">
@@ -1138,31 +1154,31 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>1200</v>
-      </c>
-      <c r="B20" s="6">
-        <v>0</v>
-      </c>
-      <c r="C20" s="6">
+      <c r="A20" s="7">
+        <v>1200</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0</v>
+      </c>
+      <c r="C20" s="7">
         <v>19.5</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="7">
         <v>19.8</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="7">
         <v>20.2</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="7">
         <v>20.399999999999999</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="7">
         <v>20.100000000000001</v>
       </c>
-      <c r="H20" s="6">
-        <v>0</v>
-      </c>
-      <c r="I20" s="6">
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
         <v>0</v>
       </c>
       <c r="J20" s="3"/>
@@ -1175,31 +1191,31 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>1200</v>
-      </c>
-      <c r="B21" s="6">
-        <v>0</v>
-      </c>
-      <c r="C21" s="6">
+      <c r="A21" s="8">
+        <v>1200</v>
+      </c>
+      <c r="B21" s="8">
+        <v>0</v>
+      </c>
+      <c r="C21" s="8">
         <v>19.5</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="8">
         <v>19.8</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="8">
         <v>20.2</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="8">
         <v>20.399999999999999</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="8">
         <v>20.100000000000001</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="8">
         <v>5</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="8">
         <f>(K21*4)/330</f>
         <v>2.5454545454545454</v>
       </c>
@@ -1211,31 +1227,31 @@
       <c r="M21" s="3"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>1200</v>
-      </c>
-      <c r="B22" s="6">
-        <v>0</v>
-      </c>
-      <c r="C22" s="6">
+      <c r="A22" s="8">
+        <v>1200</v>
+      </c>
+      <c r="B22" s="8">
+        <v>0</v>
+      </c>
+      <c r="C22" s="8">
         <v>19.5</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="8">
         <v>19.8</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="8">
         <v>20.2</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="8">
         <v>20.399999999999999</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="8">
         <v>20.100000000000001</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="8">
         <v>10</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="8">
         <f t="shared" ref="I22:I25" si="1">(K22*4)/330</f>
         <v>3.5151515151515151</v>
       </c>
@@ -1247,31 +1263,31 @@
       <c r="M22" s="3"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>1200</v>
-      </c>
-      <c r="B23" s="6">
-        <v>0</v>
-      </c>
-      <c r="C23" s="6">
+      <c r="A23" s="8">
+        <v>1200</v>
+      </c>
+      <c r="B23" s="8">
+        <v>0</v>
+      </c>
+      <c r="C23" s="8">
         <v>19.5</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="8">
         <v>19.8</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="8">
         <v>20.2</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="8">
         <v>20.399999999999999</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="8">
         <v>20.100000000000001</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="8">
         <v>15</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="8">
         <f t="shared" si="1"/>
         <v>4.2424242424242422</v>
       </c>
@@ -1283,31 +1299,31 @@
       <c r="M23" s="3"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>1200</v>
-      </c>
-      <c r="B24" s="6">
-        <v>0</v>
-      </c>
-      <c r="C24" s="6">
+      <c r="A24" s="8">
+        <v>1200</v>
+      </c>
+      <c r="B24" s="8">
+        <v>0</v>
+      </c>
+      <c r="C24" s="8">
         <v>19.5</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="8">
         <v>19.8</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="8">
         <v>20.2</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="8">
         <v>20.399999999999999</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="8">
         <v>20.100000000000001</v>
       </c>
-      <c r="H24" s="6">
-        <v>20</v>
-      </c>
-      <c r="I24" s="6">
+      <c r="H24" s="8">
+        <v>20</v>
+      </c>
+      <c r="I24" s="8">
         <f t="shared" si="1"/>
         <v>4.8484848484848486</v>
       </c>
@@ -1319,31 +1335,31 @@
       <c r="M24" s="3"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>1200</v>
-      </c>
-      <c r="B25" s="6">
-        <v>0</v>
-      </c>
-      <c r="C25" s="6">
+      <c r="A25" s="8">
+        <v>1200</v>
+      </c>
+      <c r="B25" s="8">
+        <v>0</v>
+      </c>
+      <c r="C25" s="8">
         <v>19.5</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="8">
         <v>19.8</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="8">
         <v>20.2</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="8">
         <v>20.399999999999999</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="8">
         <v>20.100000000000001</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="8">
         <v>24</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="8">
         <f t="shared" si="1"/>
         <v>5.2727272727272725</v>
       </c>
@@ -2381,31 +2397,31 @@
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="5">
-        <v>1200</v>
-      </c>
-      <c r="B56" s="5">
-        <v>0</v>
-      </c>
-      <c r="C56" s="5">
+      <c r="A56" s="7">
+        <v>1200</v>
+      </c>
+      <c r="B56" s="7">
+        <v>0</v>
+      </c>
+      <c r="C56" s="7">
         <v>19.5</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="7">
         <v>19.8</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E56" s="7">
         <v>20.2</v>
       </c>
-      <c r="F56" s="5">
+      <c r="F56" s="7">
         <v>20.399999999999999</v>
       </c>
-      <c r="G56" s="5">
+      <c r="G56" s="7">
         <v>20.100000000000001</v>
       </c>
-      <c r="H56" s="5">
-        <v>0</v>
-      </c>
-      <c r="I56" s="5">
+      <c r="H56" s="7">
+        <v>0</v>
+      </c>
+      <c r="I56" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2414,31 +2430,31 @@
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="5">
-        <v>1200</v>
-      </c>
-      <c r="B57" s="5">
-        <v>0</v>
-      </c>
-      <c r="C57" s="5">
+      <c r="A57" s="8">
+        <v>1200</v>
+      </c>
+      <c r="B57" s="8">
+        <v>0</v>
+      </c>
+      <c r="C57" s="8">
         <v>19.5</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="8">
         <v>19.8</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E57" s="8">
         <v>20.2</v>
       </c>
-      <c r="F57" s="5">
+      <c r="F57" s="8">
         <v>20.399999999999999</v>
       </c>
-      <c r="G57" s="5">
+      <c r="G57" s="8">
         <v>20.100000000000001</v>
       </c>
-      <c r="H57" s="5">
+      <c r="H57" s="8">
         <v>5</v>
       </c>
-      <c r="I57" s="5">
+      <c r="I57" s="8">
         <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
@@ -2447,31 +2463,31 @@
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="5">
-        <v>1200</v>
-      </c>
-      <c r="B58" s="5">
-        <v>0</v>
-      </c>
-      <c r="C58" s="5">
+      <c r="A58" s="8">
+        <v>1200</v>
+      </c>
+      <c r="B58" s="8">
+        <v>0</v>
+      </c>
+      <c r="C58" s="8">
         <v>19.5</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58" s="8">
         <v>19.8</v>
       </c>
-      <c r="E58" s="5">
+      <c r="E58" s="8">
         <v>20.2</v>
       </c>
-      <c r="F58" s="5">
+      <c r="F58" s="8">
         <v>20.399999999999999</v>
       </c>
-      <c r="G58" s="5">
+      <c r="G58" s="8">
         <v>20.100000000000001</v>
       </c>
-      <c r="H58" s="5">
+      <c r="H58" s="8">
         <v>10</v>
       </c>
-      <c r="I58" s="5">
+      <c r="I58" s="8">
         <f t="shared" si="4"/>
         <v>3.5227272727272729</v>
       </c>
@@ -2480,31 +2496,31 @@
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="5">
-        <v>1200</v>
-      </c>
-      <c r="B59" s="5">
-        <v>0</v>
-      </c>
-      <c r="C59" s="5">
+      <c r="A59" s="8">
+        <v>1200</v>
+      </c>
+      <c r="B59" s="8">
+        <v>0</v>
+      </c>
+      <c r="C59" s="8">
         <v>19.5</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59" s="8">
         <v>19.8</v>
       </c>
-      <c r="E59" s="5">
+      <c r="E59" s="8">
         <v>20.2</v>
       </c>
-      <c r="F59" s="5">
+      <c r="F59" s="8">
         <v>20.399999999999999</v>
       </c>
-      <c r="G59" s="5">
+      <c r="G59" s="8">
         <v>20.100000000000001</v>
       </c>
-      <c r="H59" s="5">
+      <c r="H59" s="8">
         <v>15</v>
       </c>
-      <c r="I59" s="5">
+      <c r="I59" s="8">
         <f t="shared" si="4"/>
         <v>4.2727272727272725</v>
       </c>
@@ -2513,31 +2529,31 @@
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="5">
-        <v>1200</v>
-      </c>
-      <c r="B60" s="5">
-        <v>0</v>
-      </c>
-      <c r="C60" s="5">
+      <c r="A60" s="8">
+        <v>1200</v>
+      </c>
+      <c r="B60" s="8">
+        <v>0</v>
+      </c>
+      <c r="C60" s="8">
         <v>19.5</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="8">
         <v>19.8</v>
       </c>
-      <c r="E60" s="5">
+      <c r="E60" s="8">
         <v>20.2</v>
       </c>
-      <c r="F60" s="5">
+      <c r="F60" s="8">
         <v>20.399999999999999</v>
       </c>
-      <c r="G60" s="5">
+      <c r="G60" s="8">
         <v>20.100000000000001</v>
       </c>
-      <c r="H60" s="5">
-        <v>20</v>
-      </c>
-      <c r="I60" s="5">
+      <c r="H60" s="8">
+        <v>20</v>
+      </c>
+      <c r="I60" s="8">
         <f t="shared" si="4"/>
         <v>4.9318181818181817</v>
       </c>
@@ -2546,31 +2562,31 @@
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="5">
-        <v>1200</v>
-      </c>
-      <c r="B61" s="5">
-        <v>0</v>
-      </c>
-      <c r="C61" s="5">
+      <c r="A61" s="8">
+        <v>1200</v>
+      </c>
+      <c r="B61" s="8">
+        <v>0</v>
+      </c>
+      <c r="C61" s="8">
         <v>19.5</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D61" s="8">
         <v>19.8</v>
       </c>
-      <c r="E61" s="5">
+      <c r="E61" s="8">
         <v>20.2</v>
       </c>
-      <c r="F61" s="5">
+      <c r="F61" s="8">
         <v>20.399999999999999</v>
       </c>
-      <c r="G61" s="5">
+      <c r="G61" s="8">
         <v>20.100000000000001</v>
       </c>
-      <c r="H61" s="5">
+      <c r="H61" s="8">
         <v>24</v>
       </c>
-      <c r="I61" s="5">
+      <c r="I61" s="8">
         <f t="shared" si="4"/>
         <v>5.2954545454545459</v>
       </c>
@@ -3594,62 +3610,62 @@
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" s="5">
-        <v>1200</v>
-      </c>
-      <c r="B90" s="5">
+      <c r="A90" s="8">
+        <v>1200</v>
+      </c>
+      <c r="B90" s="8">
         <f>(100-D90-F90)</f>
         <v>33.699999999999996</v>
       </c>
-      <c r="C90" s="5">
-        <v>0</v>
-      </c>
-      <c r="D90" s="5">
+      <c r="C90" s="8">
+        <v>0</v>
+      </c>
+      <c r="D90" s="8">
         <v>32.4</v>
       </c>
-      <c r="E90" s="5">
-        <v>0</v>
-      </c>
-      <c r="F90" s="5">
+      <c r="E90" s="8">
+        <v>0</v>
+      </c>
+      <c r="F90" s="8">
         <v>33.9</v>
       </c>
-      <c r="G90" s="5">
-        <v>0</v>
-      </c>
-      <c r="H90" s="5">
-        <v>0</v>
-      </c>
-      <c r="I90" s="5">
+      <c r="G90" s="8">
+        <v>0</v>
+      </c>
+      <c r="H90" s="8">
+        <v>0</v>
+      </c>
+      <c r="I90" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" s="5">
-        <v>1200</v>
-      </c>
-      <c r="B91" s="5">
+      <c r="A91" s="8">
+        <v>1200</v>
+      </c>
+      <c r="B91" s="8">
         <f t="shared" ref="B91:B93" si="7">(100-D91-F91)</f>
         <v>33.699999999999996</v>
       </c>
-      <c r="C91" s="5">
-        <v>0</v>
-      </c>
-      <c r="D91" s="5">
+      <c r="C91" s="8">
+        <v>0</v>
+      </c>
+      <c r="D91" s="8">
         <v>32.4</v>
       </c>
-      <c r="E91" s="5">
-        <v>0</v>
-      </c>
-      <c r="F91" s="5">
+      <c r="E91" s="8">
+        <v>0</v>
+      </c>
+      <c r="F91" s="8">
         <v>33.9</v>
       </c>
-      <c r="G91" s="5">
-        <v>0</v>
-      </c>
-      <c r="H91" s="5">
-        <v>0</v>
-      </c>
-      <c r="I91" s="5">
+      <c r="G91" s="8">
+        <v>0</v>
+      </c>
+      <c r="H91" s="8">
+        <v>0</v>
+      </c>
+      <c r="I91" s="8">
         <f>(K91*20)/137</f>
         <v>5.5474452554744529</v>
       </c>
@@ -3658,32 +3674,32 @@
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92" s="5">
-        <v>1200</v>
-      </c>
-      <c r="B92" s="5">
+      <c r="A92" s="8">
+        <v>1200</v>
+      </c>
+      <c r="B92" s="8">
         <f t="shared" si="7"/>
         <v>33.699999999999996</v>
       </c>
-      <c r="C92" s="5">
-        <v>0</v>
-      </c>
-      <c r="D92" s="5">
+      <c r="C92" s="8">
+        <v>0</v>
+      </c>
+      <c r="D92" s="8">
         <v>32.4</v>
       </c>
-      <c r="E92" s="5">
-        <v>0</v>
-      </c>
-      <c r="F92" s="5">
+      <c r="E92" s="8">
+        <v>0</v>
+      </c>
+      <c r="F92" s="8">
         <v>33.9</v>
       </c>
-      <c r="G92" s="5">
-        <v>0</v>
-      </c>
-      <c r="H92" s="5">
-        <v>0</v>
-      </c>
-      <c r="I92" s="5">
+      <c r="G92" s="8">
+        <v>0</v>
+      </c>
+      <c r="H92" s="8">
+        <v>0</v>
+      </c>
+      <c r="I92" s="8">
         <f>(K92*20)/137</f>
         <v>11.240875912408759</v>
       </c>
@@ -3692,92 +3708,92 @@
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" s="5">
-        <v>1200</v>
-      </c>
-      <c r="B93" s="5">
+      <c r="A93" s="8">
+        <v>1200</v>
+      </c>
+      <c r="B93" s="8">
         <f t="shared" si="7"/>
         <v>33.699999999999996</v>
       </c>
-      <c r="C93" s="5">
-        <v>0</v>
-      </c>
-      <c r="D93" s="5">
+      <c r="C93" s="8">
+        <v>0</v>
+      </c>
+      <c r="D93" s="8">
         <v>32.4</v>
       </c>
-      <c r="E93" s="5">
-        <v>0</v>
-      </c>
-      <c r="F93" s="5">
+      <c r="E93" s="8">
+        <v>0</v>
+      </c>
+      <c r="F93" s="8">
         <v>33.9</v>
       </c>
-      <c r="G93" s="5">
-        <v>0</v>
-      </c>
-      <c r="H93" s="5">
-        <v>0</v>
-      </c>
-      <c r="I93" s="5">
+      <c r="G93" s="8">
+        <v>0</v>
+      </c>
+      <c r="H93" s="8">
+        <v>0</v>
+      </c>
+      <c r="I93" s="8">
         <v>19.2</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94" s="5">
-        <v>1200</v>
-      </c>
-      <c r="B94" s="5">
+      <c r="A94" s="8">
+        <v>1200</v>
+      </c>
+      <c r="B94" s="8">
         <f>(100-D94-F94-G94)</f>
         <v>26</v>
       </c>
-      <c r="C94" s="5">
-        <v>0</v>
-      </c>
-      <c r="D94" s="5">
+      <c r="C94" s="8">
+        <v>0</v>
+      </c>
+      <c r="D94" s="8">
         <v>24.5</v>
       </c>
-      <c r="E94" s="5">
-        <v>0</v>
-      </c>
-      <c r="F94" s="5">
+      <c r="E94" s="8">
+        <v>0</v>
+      </c>
+      <c r="F94" s="8">
         <v>25.6</v>
       </c>
-      <c r="G94" s="5">
+      <c r="G94" s="8">
         <v>23.9</v>
       </c>
-      <c r="H94" s="5">
-        <v>0</v>
-      </c>
-      <c r="I94" s="5">
+      <c r="H94" s="8">
+        <v>0</v>
+      </c>
+      <c r="I94" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A95" s="5">
-        <v>1200</v>
-      </c>
-      <c r="B95" s="5">
+      <c r="A95" s="8">
+        <v>1200</v>
+      </c>
+      <c r="B95" s="8">
         <f t="shared" ref="B95:B103" si="8">(100-D95-F95-G95)</f>
         <v>26</v>
       </c>
-      <c r="C95" s="5">
-        <v>0</v>
-      </c>
-      <c r="D95" s="5">
+      <c r="C95" s="8">
+        <v>0</v>
+      </c>
+      <c r="D95" s="8">
         <v>24.5</v>
       </c>
-      <c r="E95" s="5">
-        <v>0</v>
-      </c>
-      <c r="F95" s="5">
+      <c r="E95" s="8">
+        <v>0</v>
+      </c>
+      <c r="F95" s="8">
         <v>25.6</v>
       </c>
-      <c r="G95" s="5">
+      <c r="G95" s="8">
         <v>23.9</v>
       </c>
-      <c r="H95" s="5">
-        <v>0</v>
-      </c>
-      <c r="I95" s="5">
+      <c r="H95" s="8">
+        <v>0</v>
+      </c>
+      <c r="I95" s="8">
         <f>(K95*20)/137</f>
         <v>8.3211678832116789</v>
       </c>
@@ -3786,32 +3802,32 @@
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A96" s="5">
-        <v>1200</v>
-      </c>
-      <c r="B96" s="5">
+      <c r="A96" s="8">
+        <v>1200</v>
+      </c>
+      <c r="B96" s="8">
         <f t="shared" si="8"/>
         <v>26</v>
       </c>
-      <c r="C96" s="5">
-        <v>0</v>
-      </c>
-      <c r="D96" s="5">
+      <c r="C96" s="8">
+        <v>0</v>
+      </c>
+      <c r="D96" s="8">
         <v>24.5</v>
       </c>
-      <c r="E96" s="5">
-        <v>0</v>
-      </c>
-      <c r="F96" s="5">
+      <c r="E96" s="8">
+        <v>0</v>
+      </c>
+      <c r="F96" s="8">
         <v>25.6</v>
       </c>
-      <c r="G96" s="5">
+      <c r="G96" s="8">
         <v>23.9</v>
       </c>
-      <c r="H96" s="5">
-        <v>0</v>
-      </c>
-      <c r="I96" s="5">
+      <c r="H96" s="8">
+        <v>0</v>
+      </c>
+      <c r="I96" s="8">
         <f>(K96*20)/137</f>
         <v>20.145985401459853</v>
       </c>
@@ -3820,32 +3836,32 @@
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A97" s="5">
-        <v>1200</v>
-      </c>
-      <c r="B97" s="5">
+      <c r="A97" s="8">
+        <v>1200</v>
+      </c>
+      <c r="B97" s="8">
         <f t="shared" si="8"/>
         <v>26</v>
       </c>
-      <c r="C97" s="5">
-        <v>0</v>
-      </c>
-      <c r="D97" s="5">
+      <c r="C97" s="8">
+        <v>0</v>
+      </c>
+      <c r="D97" s="8">
         <v>24.5</v>
       </c>
-      <c r="E97" s="5">
-        <v>0</v>
-      </c>
-      <c r="F97" s="5">
+      <c r="E97" s="8">
+        <v>0</v>
+      </c>
+      <c r="F97" s="8">
         <v>25.6</v>
       </c>
-      <c r="G97" s="5">
+      <c r="G97" s="8">
         <v>23.9</v>
       </c>
-      <c r="H97" s="5">
-        <v>0</v>
-      </c>
-      <c r="I97" s="5">
+      <c r="H97" s="8">
+        <v>0</v>
+      </c>
+      <c r="I97" s="8">
         <v>61.9</v>
       </c>
     </row>
@@ -4739,31 +4755,31 @@
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A125" s="6">
+      <c r="A125" s="7">
         <v>1000</v>
       </c>
-      <c r="B125" s="6">
-        <v>20</v>
-      </c>
-      <c r="C125" s="6">
-        <v>20</v>
-      </c>
-      <c r="D125" s="6">
-        <v>20</v>
-      </c>
-      <c r="E125" s="6">
-        <v>20</v>
-      </c>
-      <c r="F125" s="6">
-        <v>20</v>
-      </c>
-      <c r="G125" s="6">
-        <v>0</v>
-      </c>
-      <c r="H125" s="6">
-        <v>0</v>
-      </c>
-      <c r="I125" s="6">
+      <c r="B125" s="7">
+        <v>20</v>
+      </c>
+      <c r="C125" s="7">
+        <v>20</v>
+      </c>
+      <c r="D125" s="7">
+        <v>20</v>
+      </c>
+      <c r="E125" s="7">
+        <v>20</v>
+      </c>
+      <c r="F125" s="7">
+        <v>20</v>
+      </c>
+      <c r="G125" s="7">
+        <v>0</v>
+      </c>
+      <c r="H125" s="7">
+        <v>0</v>
+      </c>
+      <c r="I125" s="7">
         <v>0</v>
       </c>
       <c r="J125" s="3"/>
@@ -4774,31 +4790,31 @@
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A126" s="7">
+      <c r="A126" s="8">
         <v>1000</v>
       </c>
-      <c r="B126" s="7">
-        <v>20</v>
-      </c>
-      <c r="C126" s="7">
-        <v>20</v>
-      </c>
-      <c r="D126" s="7">
-        <v>20</v>
-      </c>
-      <c r="E126" s="7">
-        <v>20</v>
-      </c>
-      <c r="F126" s="7">
-        <v>20</v>
-      </c>
-      <c r="G126" s="7">
-        <v>0</v>
-      </c>
-      <c r="H126" s="7">
+      <c r="B126" s="8">
+        <v>20</v>
+      </c>
+      <c r="C126" s="8">
+        <v>20</v>
+      </c>
+      <c r="D126" s="8">
+        <v>20</v>
+      </c>
+      <c r="E126" s="8">
+        <v>20</v>
+      </c>
+      <c r="F126" s="8">
+        <v>20</v>
+      </c>
+      <c r="G126" s="8">
+        <v>0</v>
+      </c>
+      <c r="H126" s="8">
         <v>10</v>
       </c>
-      <c r="I126" s="7">
+      <c r="I126" s="8">
         <f>(K126*8)/300</f>
         <v>1.2533333333333334</v>
       </c>
@@ -4807,31 +4823,31 @@
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A127" s="7">
+      <c r="A127" s="8">
         <v>1000</v>
       </c>
-      <c r="B127" s="7">
-        <v>20</v>
-      </c>
-      <c r="C127" s="7">
-        <v>20</v>
-      </c>
-      <c r="D127" s="7">
-        <v>20</v>
-      </c>
-      <c r="E127" s="7">
-        <v>20</v>
-      </c>
-      <c r="F127" s="7">
-        <v>20</v>
-      </c>
-      <c r="G127" s="7">
-        <v>0</v>
-      </c>
-      <c r="H127" s="7">
-        <v>20</v>
-      </c>
-      <c r="I127" s="7">
+      <c r="B127" s="8">
+        <v>20</v>
+      </c>
+      <c r="C127" s="8">
+        <v>20</v>
+      </c>
+      <c r="D127" s="8">
+        <v>20</v>
+      </c>
+      <c r="E127" s="8">
+        <v>20</v>
+      </c>
+      <c r="F127" s="8">
+        <v>20</v>
+      </c>
+      <c r="G127" s="8">
+        <v>0</v>
+      </c>
+      <c r="H127" s="8">
+        <v>20</v>
+      </c>
+      <c r="I127" s="8">
         <f t="shared" ref="I127:I129" si="12">(K127*8)/300</f>
         <v>2.7466666666666666</v>
       </c>
@@ -4840,31 +4856,31 @@
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A128" s="7">
+      <c r="A128" s="8">
         <v>1000</v>
       </c>
-      <c r="B128" s="7">
-        <v>20</v>
-      </c>
-      <c r="C128" s="7">
-        <v>20</v>
-      </c>
-      <c r="D128" s="7">
-        <v>20</v>
-      </c>
-      <c r="E128" s="7">
-        <v>20</v>
-      </c>
-      <c r="F128" s="7">
-        <v>20</v>
-      </c>
-      <c r="G128" s="7">
-        <v>0</v>
-      </c>
-      <c r="H128" s="7">
+      <c r="B128" s="8">
+        <v>20</v>
+      </c>
+      <c r="C128" s="8">
+        <v>20</v>
+      </c>
+      <c r="D128" s="8">
+        <v>20</v>
+      </c>
+      <c r="E128" s="8">
+        <v>20</v>
+      </c>
+      <c r="F128" s="8">
+        <v>20</v>
+      </c>
+      <c r="G128" s="8">
+        <v>0</v>
+      </c>
+      <c r="H128" s="8">
         <v>30</v>
       </c>
-      <c r="I128" s="7">
+      <c r="I128" s="8">
         <f t="shared" si="12"/>
         <v>5.333333333333333</v>
       </c>
@@ -4873,31 +4889,31 @@
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="7">
+      <c r="A129" s="8">
         <v>1000</v>
       </c>
-      <c r="B129" s="7">
-        <v>20</v>
-      </c>
-      <c r="C129" s="7">
-        <v>20</v>
-      </c>
-      <c r="D129" s="7">
-        <v>20</v>
-      </c>
-      <c r="E129" s="7">
-        <v>20</v>
-      </c>
-      <c r="F129" s="7">
-        <v>20</v>
-      </c>
-      <c r="G129" s="7">
-        <v>0</v>
-      </c>
-      <c r="H129" s="7">
+      <c r="B129" s="8">
+        <v>20</v>
+      </c>
+      <c r="C129" s="8">
+        <v>20</v>
+      </c>
+      <c r="D129" s="8">
+        <v>20</v>
+      </c>
+      <c r="E129" s="8">
+        <v>20</v>
+      </c>
+      <c r="F129" s="8">
+        <v>20</v>
+      </c>
+      <c r="G129" s="8">
+        <v>0</v>
+      </c>
+      <c r="H129" s="8">
         <v>40</v>
       </c>
-      <c r="I129" s="7">
+      <c r="I129" s="8">
         <f t="shared" si="12"/>
         <v>8.1866666666666674</v>
       </c>
@@ -4938,31 +4954,31 @@
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="7">
+      <c r="A131" s="5">
         <v>1100</v>
       </c>
-      <c r="B131" s="7">
-        <v>20</v>
-      </c>
-      <c r="C131" s="7">
-        <v>20</v>
-      </c>
-      <c r="D131" s="7">
-        <v>20</v>
-      </c>
-      <c r="E131" s="7">
-        <v>20</v>
-      </c>
-      <c r="F131" s="7">
-        <v>20</v>
-      </c>
-      <c r="G131" s="7">
-        <v>0</v>
-      </c>
-      <c r="H131" s="7">
+      <c r="B131" s="5">
+        <v>20</v>
+      </c>
+      <c r="C131" s="5">
+        <v>20</v>
+      </c>
+      <c r="D131" s="5">
+        <v>20</v>
+      </c>
+      <c r="E131" s="5">
+        <v>20</v>
+      </c>
+      <c r="F131" s="5">
+        <v>20</v>
+      </c>
+      <c r="G131" s="5">
+        <v>0</v>
+      </c>
+      <c r="H131" s="5">
         <v>10</v>
       </c>
-      <c r="I131" s="7">
+      <c r="I131" s="5">
         <f t="shared" ref="I131:I134" si="13">(K131*8)/365</f>
         <v>3.3534246575342466</v>
       </c>
@@ -4971,31 +4987,31 @@
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="7">
+      <c r="A132" s="5">
         <v>1100</v>
       </c>
-      <c r="B132" s="7">
-        <v>20</v>
-      </c>
-      <c r="C132" s="7">
-        <v>20</v>
-      </c>
-      <c r="D132" s="7">
-        <v>20</v>
-      </c>
-      <c r="E132" s="7">
-        <v>20</v>
-      </c>
-      <c r="F132" s="7">
-        <v>20</v>
-      </c>
-      <c r="G132" s="7">
-        <v>0</v>
-      </c>
-      <c r="H132" s="7">
-        <v>20</v>
-      </c>
-      <c r="I132" s="7">
+      <c r="B132" s="5">
+        <v>20</v>
+      </c>
+      <c r="C132" s="5">
+        <v>20</v>
+      </c>
+      <c r="D132" s="5">
+        <v>20</v>
+      </c>
+      <c r="E132" s="5">
+        <v>20</v>
+      </c>
+      <c r="F132" s="5">
+        <v>20</v>
+      </c>
+      <c r="G132" s="5">
+        <v>0</v>
+      </c>
+      <c r="H132" s="5">
+        <v>20</v>
+      </c>
+      <c r="I132" s="5">
         <f t="shared" si="13"/>
         <v>5.4794520547945202</v>
       </c>
@@ -5004,31 +5020,31 @@
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="7">
+      <c r="A133" s="5">
         <v>1100</v>
       </c>
-      <c r="B133" s="7">
-        <v>20</v>
-      </c>
-      <c r="C133" s="7">
-        <v>20</v>
-      </c>
-      <c r="D133" s="7">
-        <v>20</v>
-      </c>
-      <c r="E133" s="7">
-        <v>20</v>
-      </c>
-      <c r="F133" s="7">
-        <v>20</v>
-      </c>
-      <c r="G133" s="7">
-        <v>0</v>
-      </c>
-      <c r="H133" s="7">
+      <c r="B133" s="5">
+        <v>20</v>
+      </c>
+      <c r="C133" s="5">
+        <v>20</v>
+      </c>
+      <c r="D133" s="5">
+        <v>20</v>
+      </c>
+      <c r="E133" s="5">
+        <v>20</v>
+      </c>
+      <c r="F133" s="5">
+        <v>20</v>
+      </c>
+      <c r="G133" s="5">
+        <v>0</v>
+      </c>
+      <c r="H133" s="5">
         <v>30</v>
       </c>
-      <c r="I133" s="7">
+      <c r="I133" s="5">
         <f t="shared" si="13"/>
         <v>6.904109589041096</v>
       </c>
@@ -5037,31 +5053,31 @@
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="7">
+      <c r="A134" s="5">
         <v>1100</v>
       </c>
-      <c r="B134" s="7">
-        <v>20</v>
-      </c>
-      <c r="C134" s="7">
-        <v>20</v>
-      </c>
-      <c r="D134" s="7">
-        <v>20</v>
-      </c>
-      <c r="E134" s="7">
-        <v>20</v>
-      </c>
-      <c r="F134" s="7">
-        <v>20</v>
-      </c>
-      <c r="G134" s="7">
-        <v>0</v>
-      </c>
-      <c r="H134" s="7">
+      <c r="B134" s="5">
+        <v>20</v>
+      </c>
+      <c r="C134" s="5">
+        <v>20</v>
+      </c>
+      <c r="D134" s="5">
+        <v>20</v>
+      </c>
+      <c r="E134" s="5">
+        <v>20</v>
+      </c>
+      <c r="F134" s="5">
+        <v>20</v>
+      </c>
+      <c r="G134" s="5">
+        <v>0</v>
+      </c>
+      <c r="H134" s="5">
         <v>40</v>
       </c>
-      <c r="I134" s="7">
+      <c r="I134" s="5">
         <f t="shared" si="13"/>
         <v>7.8465753424657532</v>
       </c>

--- a/Data ANN Oxidation.xlsx
+++ b/Data ANN Oxidation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fbaci\Documents\Oxidation_SVR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fbaci\PycharmProjects\Oxidation_SVR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4478DE9D-CA02-43A8-9FB5-46A67907F253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCDB1BD-48B2-4051-8A36-066FB5DE0CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28020" windowHeight="16440" xr2:uid="{B3A0DE45-8C9D-47FA-AE47-7FBC4D0760BE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B3A0DE45-8C9D-47FA-AE47-7FBC4D0760BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Nb</t>
   </si>
@@ -88,6 +88,21 @@
   </si>
   <si>
     <t>https://doi.org/10.1007/s11085-016-9696-y</t>
+  </si>
+  <si>
+    <t>same as 125 - 129</t>
+  </si>
+  <si>
+    <t>same as 11-19</t>
+  </si>
+  <si>
+    <t>no time</t>
+  </si>
+  <si>
+    <t>same as 20-25</t>
+  </si>
+  <si>
+    <t>same  as 56-61</t>
   </si>
 </sst>
 </file>
@@ -193,10 +208,10 @@
     <xf numFmtId="2" fontId="4" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
-    <cellStyle name="Neutralny" xfId="3" builtinId="28"/>
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
-    <cellStyle name="Zły" xfId="2" builtinId="27"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -212,9 +227,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -252,7 +267,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -358,7 +373,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -510,23 +525,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CC471B-27EE-4A95-B21F-BACF1A65D839}">
   <dimension ref="A1:M141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90:I97"/>
+    <sheetView tabSelected="1" topLeftCell="A129" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="8" width="8.85546875" style="1"/>
-    <col min="9" max="9" width="15.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="13.453125" style="1" customWidth="1"/>
+    <col min="2" max="8" width="8.81640625" style="1"/>
+    <col min="9" max="9" width="15.7265625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.81640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" style="1"/>
-    <col min="13" max="13" width="44.5703125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="1"/>
+    <col min="12" max="12" width="18.26953125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="44.54296875" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -558,7 +573,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1000</v>
       </c>
@@ -593,7 +608,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>1000</v>
       </c>
@@ -626,7 +641,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>1000</v>
       </c>
@@ -659,7 +674,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>1000</v>
       </c>
@@ -692,7 +707,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>1000</v>
       </c>
@@ -725,7 +740,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>1000</v>
       </c>
@@ -758,7 +773,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>1000</v>
       </c>
@@ -791,7 +806,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>1000</v>
       </c>
@@ -824,7 +839,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>1000</v>
       </c>
@@ -857,7 +872,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>1000</v>
       </c>
@@ -889,8 +904,11 @@
       <c r="K11" s="1">
         <v>245</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>1000</v>
       </c>
@@ -923,7 +941,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>1000</v>
       </c>
@@ -956,7 +974,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>1000</v>
       </c>
@@ -989,7 +1007,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>1000</v>
       </c>
@@ -1022,7 +1040,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>1000</v>
       </c>
@@ -1055,7 +1073,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>1000</v>
       </c>
@@ -1088,7 +1106,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>1000</v>
       </c>
@@ -1121,7 +1139,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>1000</v>
       </c>
@@ -1153,7 +1171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>1200</v>
       </c>
@@ -1185,12 +1203,14 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3"/>
+      <c r="L20" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="M20" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>1200</v>
       </c>
@@ -1226,7 +1246,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>1200</v>
       </c>
@@ -1262,7 +1282,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>1200</v>
       </c>
@@ -1298,7 +1318,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
         <v>1200</v>
       </c>
@@ -1334,7 +1354,7 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="8">
         <v>1200</v>
       </c>
@@ -1370,7 +1390,7 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <v>1200</v>
       </c>
@@ -1405,7 +1425,7 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <v>1200</v>
       </c>
@@ -1441,7 +1461,7 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
         <v>1200</v>
       </c>
@@ -1477,7 +1497,7 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <v>1200</v>
       </c>
@@ -1513,7 +1533,7 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <v>1200</v>
       </c>
@@ -1549,7 +1569,7 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <v>1200</v>
       </c>
@@ -1585,7 +1605,7 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <v>1200</v>
       </c>
@@ -1620,7 +1640,7 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
         <v>1200</v>
       </c>
@@ -1656,7 +1676,7 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
         <v>1200</v>
       </c>
@@ -1692,7 +1712,7 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
         <v>1200</v>
       </c>
@@ -1728,7 +1748,7 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
         <v>1200</v>
       </c>
@@ -1764,7 +1784,7 @@
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
         <v>1200</v>
       </c>
@@ -1800,7 +1820,7 @@
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>1200</v>
       </c>
@@ -1835,7 +1855,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <v>1200</v>
       </c>
@@ -1868,7 +1888,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>1200</v>
       </c>
@@ -1901,7 +1921,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>1200</v>
       </c>
@@ -1934,7 +1954,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>1200</v>
       </c>
@@ -1967,7 +1987,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <v>1200</v>
       </c>
@@ -2000,7 +2020,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>1200</v>
       </c>
@@ -2033,7 +2053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <v>1200</v>
       </c>
@@ -2066,7 +2086,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <v>1200</v>
       </c>
@@ -2099,7 +2119,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>1200</v>
       </c>
@@ -2132,7 +2152,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
         <v>1200</v>
       </c>
@@ -2165,7 +2185,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
         <v>1200</v>
       </c>
@@ -2198,7 +2218,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>1200</v>
       </c>
@@ -2231,7 +2251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
         <v>1200</v>
       </c>
@@ -2264,7 +2284,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <v>1200</v>
       </c>
@@ -2297,7 +2317,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
         <v>1200</v>
       </c>
@@ -2330,7 +2350,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
         <v>1200</v>
       </c>
@@ -2363,7 +2383,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
         <v>1200</v>
       </c>
@@ -2396,7 +2416,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="7">
         <v>1200</v>
       </c>
@@ -2428,8 +2448,11 @@
       <c r="K56" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L56" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="8">
         <v>1200</v>
       </c>
@@ -2462,7 +2485,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="8">
         <v>1200</v>
       </c>
@@ -2495,7 +2518,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="8">
         <v>1200</v>
       </c>
@@ -2528,7 +2551,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="8">
         <v>1200</v>
       </c>
@@ -2561,7 +2584,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="8">
         <v>1200</v>
       </c>
@@ -2594,7 +2617,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="6">
         <v>1200</v>
       </c>
@@ -2633,7 +2656,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="6">
         <v>1200</v>
       </c>
@@ -2670,7 +2693,7 @@
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="6">
         <v>1200</v>
       </c>
@@ -2707,7 +2730,7 @@
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="6">
         <v>1200</v>
       </c>
@@ -2744,7 +2767,7 @@
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="6">
         <v>1200</v>
       </c>
@@ -2781,7 +2804,7 @@
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="6">
         <v>1200</v>
       </c>
@@ -2818,7 +2841,7 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="6">
         <v>1200</v>
       </c>
@@ -2855,7 +2878,7 @@
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="6">
         <v>1200</v>
       </c>
@@ -2892,7 +2915,7 @@
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="6">
         <v>1200</v>
       </c>
@@ -2929,7 +2952,7 @@
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="6">
         <v>1200</v>
       </c>
@@ -2966,7 +2989,7 @@
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="6">
         <v>1200</v>
       </c>
@@ -3003,7 +3026,7 @@
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="6">
         <v>1200</v>
       </c>
@@ -3040,7 +3063,7 @@
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" s="6">
         <v>1200</v>
       </c>
@@ -3076,7 +3099,7 @@
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" s="6">
         <v>1200</v>
       </c>
@@ -3113,7 +3136,7 @@
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="6">
         <v>1200</v>
       </c>
@@ -3150,7 +3173,7 @@
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" s="6">
         <v>1200</v>
       </c>
@@ -3187,7 +3210,7 @@
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="6">
         <v>1200</v>
       </c>
@@ -3224,7 +3247,7 @@
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" s="6">
         <v>1200</v>
       </c>
@@ -3261,7 +3284,7 @@
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" s="6">
         <v>1200</v>
       </c>
@@ -3297,7 +3320,7 @@
       <c r="L80" s="3"/>
       <c r="M80" s="3"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" s="6">
         <v>1200</v>
       </c>
@@ -3334,7 +3357,7 @@
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" s="6">
         <v>1200</v>
       </c>
@@ -3371,7 +3394,7 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" s="6">
         <v>1200</v>
       </c>
@@ -3408,7 +3431,7 @@
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" s="6">
         <v>1200</v>
       </c>
@@ -3445,7 +3468,7 @@
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" s="6">
         <v>1200</v>
       </c>
@@ -3482,7 +3505,7 @@
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="5">
         <v>1200</v>
       </c>
@@ -3510,11 +3533,11 @@
       <c r="I86" s="5">
         <v>0</v>
       </c>
-      <c r="M86" s="1" t="s">
+      <c r="M86" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" s="5">
         <v>1200</v>
       </c>
@@ -3547,7 +3570,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" s="5">
         <v>1200</v>
       </c>
@@ -3580,7 +3603,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" s="5">
         <v>1200</v>
       </c>
@@ -3609,7 +3632,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" s="8">
         <v>1200</v>
       </c>
@@ -3638,8 +3661,11 @@
       <c r="I90" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L90" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" s="8">
         <v>1200</v>
       </c>
@@ -3673,7 +3699,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" s="8">
         <v>1200</v>
       </c>
@@ -3707,7 +3733,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" s="8">
         <v>1200</v>
       </c>
@@ -3737,7 +3763,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" s="8">
         <v>1200</v>
       </c>
@@ -3767,7 +3793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" s="8">
         <v>1200</v>
       </c>
@@ -3801,7 +3827,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" s="8">
         <v>1200</v>
       </c>
@@ -3835,7 +3861,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" s="8">
         <v>1200</v>
       </c>
@@ -3865,7 +3891,7 @@
         <v>61.9</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" s="6">
         <v>1200</v>
       </c>
@@ -3901,7 +3927,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" s="6">
         <v>1200</v>
       </c>
@@ -3935,7 +3961,7 @@
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="6">
         <v>1200</v>
       </c>
@@ -3969,7 +3995,7 @@
       <c r="L100" s="3"/>
       <c r="M100" s="3"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" s="6">
         <v>1200</v>
       </c>
@@ -4006,7 +4032,7 @@
       <c r="L101" s="3"/>
       <c r="M101" s="3"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" s="6">
         <v>1200</v>
       </c>
@@ -4043,7 +4069,7 @@
       <c r="L102" s="3"/>
       <c r="M102" s="3"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" s="6">
         <v>1200</v>
       </c>
@@ -4080,7 +4106,7 @@
       <c r="L103" s="3"/>
       <c r="M103" s="3"/>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" s="5">
         <v>1200</v>
       </c>
@@ -4112,7 +4138,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" s="5">
         <v>1200</v>
       </c>
@@ -4141,7 +4167,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" s="5">
         <v>1200</v>
       </c>
@@ -4170,7 +4196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" s="5">
         <v>1200</v>
       </c>
@@ -4203,7 +4229,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108" s="5">
         <v>1200</v>
       </c>
@@ -4236,7 +4262,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" s="5">
         <v>1200</v>
       </c>
@@ -4269,7 +4295,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110" s="5">
         <v>1200</v>
       </c>
@@ -4302,7 +4328,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" s="5">
         <v>1200</v>
       </c>
@@ -4335,7 +4361,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112" s="5">
         <v>1200</v>
       </c>
@@ -4367,7 +4393,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113" s="5">
         <v>1200</v>
       </c>
@@ -4396,7 +4422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" s="5">
         <v>1200</v>
       </c>
@@ -4429,7 +4455,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115" s="5">
         <v>1200</v>
       </c>
@@ -4462,7 +4488,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116" s="5">
         <v>1200</v>
       </c>
@@ -4495,7 +4521,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117" s="5">
         <v>1200</v>
       </c>
@@ -4528,7 +4554,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A118" s="5">
         <v>1200</v>
       </c>
@@ -4560,7 +4586,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A119" s="5">
         <v>1200</v>
       </c>
@@ -4589,7 +4615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A120" s="5">
         <v>1200</v>
       </c>
@@ -4622,7 +4648,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A121" s="5">
         <v>1200</v>
       </c>
@@ -4655,7 +4681,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A122" s="5">
         <v>1200</v>
       </c>
@@ -4688,7 +4714,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A123" s="5">
         <v>1200</v>
       </c>
@@ -4721,7 +4747,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A124" s="5">
         <v>1200</v>
       </c>
@@ -4754,7 +4780,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" ht="16" x14ac:dyDescent="0.45">
       <c r="A125" s="7">
         <v>1000</v>
       </c>
@@ -4784,12 +4810,14 @@
       </c>
       <c r="J125" s="3"/>
       <c r="K125" s="3"/>
-      <c r="L125" s="3"/>
+      <c r="L125" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="M125" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A126" s="8">
         <v>1000</v>
       </c>
@@ -4822,7 +4850,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A127" s="8">
         <v>1000</v>
       </c>
@@ -4855,7 +4883,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A128" s="8">
         <v>1000</v>
       </c>
@@ -4888,7 +4916,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A129" s="8">
         <v>1000</v>
       </c>
@@ -4921,7 +4949,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A130" s="5">
         <v>1100</v>
       </c>
@@ -4953,7 +4981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A131" s="5">
         <v>1100</v>
       </c>
@@ -4986,7 +5014,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A132" s="5">
         <v>1100</v>
       </c>
@@ -5019,7 +5047,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A133" s="5">
         <v>1100</v>
       </c>
@@ -5052,7 +5080,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A134" s="5">
         <v>1100</v>
       </c>
@@ -5085,7 +5113,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A135" s="5">
         <v>1100</v>
       </c>
@@ -5118,7 +5146,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136" s="5">
         <v>1100</v>
       </c>
@@ -5147,7 +5175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A137" s="5">
         <v>1100</v>
       </c>
@@ -5180,7 +5208,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A138" s="5">
         <v>1100</v>
       </c>
@@ -5213,7 +5241,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A139" s="5">
         <v>1100</v>
       </c>
@@ -5246,7 +5274,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A140" s="5">
         <v>1100</v>
       </c>
@@ -5279,7 +5307,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A141" s="5">
         <v>1100</v>
       </c>
@@ -5315,8 +5343,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="M2" r:id="rId1" xr:uid="{15E537D9-2F93-4EBC-A33B-8BA1F7C5A9E8}"/>
+    <hyperlink ref="M86" r:id="rId2" xr:uid="{DB9D132B-E5F1-4EE8-B700-74BF093ED236}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>